--- a/db/dummydata/FTL_DISTANCE_SHEET.xlsx
+++ b/db/dummydata/FTL_DISTANCE_SHEET.xlsx
@@ -79,7 +79,7 @@
     <t>PER_X_KM</t>
   </si>
   <si>
-    <t>sima</t>
+    <t>side_lifter</t>
   </si>
 </sst>
 </file>
